--- a/Parent.xlsx
+++ b/Parent.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ts35494\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vikra\Desktop\Fuehrerschein\Fuehrerschein\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432"/>
   </bookViews>
   <sheets>
     <sheet name="Parents" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -233,7 +233,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -350,6 +350,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -365,12 +368,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -656,72 +656,72 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:T34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17:K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.42578125" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" customWidth="1"/>
-    <col min="16" max="16" width="7.5703125" customWidth="1"/>
+    <col min="2" max="3" width="9.44140625" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" customWidth="1"/>
+    <col min="6" max="6" width="8.44140625" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" customWidth="1"/>
+    <col min="8" max="8" width="9.5546875" customWidth="1"/>
+    <col min="9" max="9" width="8.5546875" customWidth="1"/>
+    <col min="14" max="14" width="12.109375" customWidth="1"/>
+    <col min="16" max="16" width="7.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="J2" s="7" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="J2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="9"/>
-      <c r="Q2" s="7" t="s">
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="12"/>
+      <c r="Q2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="R2" s="9"/>
+      <c r="R2" s="12"/>
       <c r="T2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="7" t="s">
         <v>26</v>
       </c>
       <c r="J3" s="1"/>
@@ -745,37 +745,37 @@
       </c>
       <c r="R3" s="2">
         <f>SUM(B16:H16)+1000</f>
-        <v>6522</v>
+        <v>6422</v>
       </c>
       <c r="T3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="8">
         <f>2394+350</f>
         <v>2744</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="8">
         <v>2364</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="8">
         <v>2364</v>
       </c>
-      <c r="E4" s="13">
-        <f>2364+1600</f>
-        <v>3964</v>
-      </c>
-      <c r="F4" s="13">
+      <c r="E4" s="8">
+        <f>2364+1500</f>
+        <v>3864</v>
+      </c>
+      <c r="F4" s="8">
         <v>2364</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="8">
         <v>2364</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="8">
         <v>2364</v>
       </c>
       <c r="J4" s="1" t="s">
@@ -807,7 +807,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -845,7 +845,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -899,7 +899,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -953,7 +953,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -1007,7 +1007,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1039,7 +1039,7 @@
         <v>200</v>
       </c>
       <c r="L9" s="3">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="M9" s="3">
         <v>130</v>
@@ -1049,7 +1049,7 @@
       </c>
       <c r="O9" s="1">
         <f t="shared" si="0"/>
-        <v>680</v>
+        <v>720</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>1</v>
@@ -1061,7 +1061,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>52</v>
       </c>
@@ -1099,15 +1099,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="6">
         <v>950</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="L11" s="1">
         <f>SUM(L4:L9)</f>
-        <v>1300</v>
+        <v>1340</v>
       </c>
       <c r="M11" s="1">
         <f>SUM(M4:M9)</f>
@@ -1131,23 +1131,23 @@
       </c>
       <c r="O11" s="2">
         <f>K11+L11+M11+N11</f>
-        <v>3360</v>
+        <v>3400</v>
       </c>
       <c r="Q11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="R11" s="2">
         <f>R3-SUM(R4:R10)</f>
-        <v>3962</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+        <v>3862</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -1161,15 +1161,15 @@
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="6">
         <v>90</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -1183,7 +1183,7 @@
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>33</v>
       </c>
@@ -1217,7 +1217,7 @@
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B16" s="1">
         <f t="shared" ref="B16:H16" si="1">B4-SUM(B6:B14)</f>
         <v>66</v>
@@ -1232,7 +1232,7 @@
       </c>
       <c r="E16" s="1">
         <f t="shared" si="1"/>
-        <v>2201</v>
+        <v>2101</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" si="1"/>
@@ -1247,14 +1247,14 @@
         <v>801</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -1265,7 +1265,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -1276,7 +1276,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -1298,7 +1298,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -1309,7 +1309,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>47</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>49</v>
       </c>
@@ -1344,7 +1344,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>64</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>66</v>
       </c>
@@ -1366,7 +1366,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>27</v>
       </c>

--- a/Parent.xlsx
+++ b/Parent.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ts35494\Desktop\Fuehrerschein\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vikra\Desktop\Fuhrer\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432"/>
   </bookViews>
   <sheets>
     <sheet name="Parents" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -236,7 +236,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -367,6 +367,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -382,11 +384,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -673,51 +673,51 @@
   <dimension ref="A2:T34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.42578125" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" customWidth="1"/>
-    <col min="16" max="16" width="7.5703125" customWidth="1"/>
+    <col min="2" max="3" width="9.44140625" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" customWidth="1"/>
+    <col min="6" max="6" width="8.44140625" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" customWidth="1"/>
+    <col min="8" max="8" width="9.5546875" customWidth="1"/>
+    <col min="9" max="9" width="8.5546875" customWidth="1"/>
+    <col min="14" max="14" width="12.109375" customWidth="1"/>
+    <col min="16" max="16" width="7.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="J2" s="10" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="J2" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="12"/>
-      <c r="Q2" s="10" t="s">
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="14"/>
+      <c r="Q2" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="R2" s="12"/>
+      <c r="R2" s="14"/>
       <c r="T2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
         <v>15</v>
@@ -767,7 +767,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>31</v>
       </c>
@@ -823,7 +823,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -861,7 +861,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -915,7 +915,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -969,7 +969,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1077,7 +1077,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>52</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>53</v>
       </c>
@@ -1149,15 +1149,15 @@
         <f>K11+L11+M11+N11</f>
         <v>3440</v>
       </c>
-      <c r="Q11" s="14" t="s">
+      <c r="Q11" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="R11" s="15">
+      <c r="R11" s="10">
         <f>SUM(R4:R10)</f>
         <v>2610</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>54</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>3772</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>55</v>
       </c>
@@ -1204,7 +1204,7 @@
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>33</v>
       </c>
@@ -1238,7 +1238,7 @@
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B16" s="1">
         <f t="shared" ref="B16:H16" si="1">B4-SUM(B6:B14)</f>
         <v>66</v>
@@ -1268,14 +1268,14 @@
         <v>801</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -1286,7 +1286,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -1297,7 +1297,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -1308,7 +1308,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>47</v>
       </c>
@@ -1354,7 +1354,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>49</v>
       </c>
@@ -1365,7 +1365,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>64</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>66</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>27</v>
       </c>

--- a/Parent.xlsx
+++ b/Parent.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Parents" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -673,7 +674,7 @@
   <dimension ref="A2:T34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1407,4 +1408,18 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>